--- a/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,51</t>
+          <t>9,82</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>5,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,6</t>
+          <t>15,79</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>68,47%</t>
+          <t>64,16%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>140,98%</t>
+          <t>108,4%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>111,95%</t>
+          <t>99,82%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>60,66%</t>
+          <t>142,12%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 7,82</t>
+          <t>0,78; 8,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,0; 24,35</t>
+          <t>4,6; 14,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,66; 13,27</t>
+          <t>2,38; 9,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 5,87</t>
+          <t>5,86; 27,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,1; 150,33</t>
+          <t>7,67; 150,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,64; 338,44</t>
+          <t>33,34; 213,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,58; 191,04</t>
+          <t>28,62; 200,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,04; 124,93</t>
+          <t>26,39; 370,46</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,97</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>3,9</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,04</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>75,35%</t>
+          <t>77,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>82,84%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>61,5%</t>
+          <t>78,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>75,59%</t>
+          <t>82,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,79</t>
+          <t>1,91; 4,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,69; 9,0</t>
+          <t>-0,72; 4,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,13; 3,78</t>
+          <t>1,98; 5,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,18</t>
+          <t>2,99; 9,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,0; 131,88</t>
+          <t>35,26; 125,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,25; 157,72</t>
+          <t>-7,62; 171,66</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,72; 111,56</t>
+          <t>33,48; 135,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,76; 117,56</t>
+          <t>34,03; 159,07</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,21</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>-8,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>22,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>35,2%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-3,78%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 3,0</t>
+          <t>-2,42; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 3,81</t>
+          <t>-1,93; 2,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 2,46</t>
+          <t>-0,73; 3,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,38</t>
+          <t>-1,58; 3,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 104,71</t>
+          <t>-43,2; 54,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 94,18</t>
+          <t>-44,12; 104,55</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-25,64; 148,26</t>
+          <t>-22,62; 171,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-39,22; 43,23</t>
+          <t>-24,91; 95,49</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,6</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,07</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>59,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>80,01%</t>
+          <t>78,14%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>90,97%</t>
+          <t>78,96%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,42%</t>
+          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,08; 4,78</t>
+          <t>1,66; 3,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,06</t>
+          <t>0,98; 5,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,25</t>
+          <t>2,26; 4,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,42</t>
+          <t>3,28; 8,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>34,96; 102,28</t>
+          <t>31,35; 90,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,06; 129,43</t>
+          <t>21,12; 162,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>57,21; 131,1</t>
+          <t>44,34; 122,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>31,74; 87,67</t>
+          <t>38,87; 130,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,76</t>
+          <t>5,88</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>64,16%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 8,2</t>
+          <t>2,4; 9,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 14,86</t>
+          <t>4,97; 15,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,86; 27,13</t>
+          <t>6,13; 26,72</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 150,9</t>
+          <t>23,7; 176,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,34; 213,31</t>
+          <t>36,92; 228,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>26,39; 370,46</t>
+          <t>24,0; 363,63</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>77,48%</t>
+          <t>87,13%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,91; 4,74</t>
+          <t>2,03; 4,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 4,55</t>
+          <t>-1,01; 4,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,99; 9,1</t>
+          <t>2,83; 8,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>35,26; 125,16</t>
+          <t>44,76; 137,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 171,66</t>
+          <t>-15,47; 169,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>34,03; 159,07</t>
+          <t>33,37; 160,67</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,25%</t>
+          <t>-4,82%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 1,77</t>
+          <t>-2,08; 1,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 2,27</t>
+          <t>-2,23; 2,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 3,86</t>
+          <t>-1,76; 3,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-43,2; 54,91</t>
+          <t>-41,19; 49,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-44,12; 104,55</t>
+          <t>-50,58; 100,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 95,49</t>
+          <t>-27,07; 100,1</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,75</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>67,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 3,84</t>
+          <t>1,86; 3,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,46</t>
+          <t>0,96; 5,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 8,2</t>
+          <t>2,97; 8,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>31,35; 90,53</t>
+          <t>39,24; 105,48</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,12; 162,7</t>
+          <t>22,2; 159,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,87; 130,56</t>
+          <t>34,21; 130,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANS-Estudios-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,29</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>15,79</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>5,88</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>9,82</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>15,79</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>104,41%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>142,12%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>99,82%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>89,06%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>108,4%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>99,82%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>142,12%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>4,54; 13,65</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6,13; 26,72</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>2,38; 9,33</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>2,4; 9,14</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>4,97; 15,15</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 9,33</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,13; 26,72</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>35,81; 216,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24,0; 363,63</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28,62; 200,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>23,7; 176,26</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>36,92; 228,75</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>28,62; 200,38</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>24,0; 363,63</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5,75</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,9</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>3,38</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>2,07</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>3,9</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>58,3%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>82,65%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>78,04%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>87,13%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>52,09%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>78,04%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>82,65%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>0,91; 4,5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2,83; 8,97</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 5,8</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>2,03; 4,68</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 4,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>1,98; 5,8</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>2,83; 8,97</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>14,83; 128,23</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>33,37; 160,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33,48; 135,31</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>44,76; 137,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,47; 169,09</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>33,48; 135,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>33,37; 160,67</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-0,19</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>1,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>1,21</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22,63%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>50,88%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-4,82%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>4,32%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>50,88%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>22,63%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-1,67; 2,47</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 3,84</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 3,58</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-2,08; 1,43</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,23; 2,11</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 3,58</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,76; 3,84</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-42,6; 125,26</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-27,07; 100,1</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-22,62; 171,93</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-41,19; 49,4</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-50,58; 100,47</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-22,62; 171,93</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-27,07; 100,1</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3,61</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>2,84</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,42</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>3,61</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>5,61</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>81,26%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>79,97%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>78,96%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>67,67%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>78,14%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>78,96%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>2,48; 5,22</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2,97; 8,0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 4,84</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>1,86; 3,97</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,96; 5,31</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,26; 4,84</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,97; 8,0</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>45,1; 126,51</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>34,21; 130,45</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>44,34; 122,72</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>39,24; 105,48</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>22,2; 159,84</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>44,34; 122,72</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>34,21; 130,45</t>
         </is>
       </c>
     </row>
